--- a/data/input/absenteeism_data_25.xlsx
+++ b/data/input/absenteeism_data_25.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45473</v>
+        <v>5360</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beatriz Souza</t>
+          <t>Ana Clara Dias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,200 +490,200 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>6627.23</v>
+        <v>11734.81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>76086</v>
+        <v>51595</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruna Barbosa</t>
+          <t>Camila Araújo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45103</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>5671.62</v>
+        <v>8581.07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>35171</v>
+        <v>35137</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sr. Rodrigo Carvalho</t>
+          <t>Ana Clara Moura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>8180.57</v>
+        <v>12269.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36413</v>
+        <v>39032</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Juliana Souza</t>
+          <t>Guilherme Peixoto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>11309.07</v>
+        <v>8758.110000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>31466</v>
+        <v>86365</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nina Lopes</t>
+          <t>Srta. Ana Sophia Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>8171.11</v>
+        <v>9749.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18287</v>
+        <v>61651</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Miguel da Conceição</t>
+          <t>Eloah Sales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45095</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>8191.68</v>
+        <v>11138.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>71317</v>
+        <v>62972</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Vitória Nunes</t>
+          <t>Amanda Duarte</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>5510.27</v>
+        <v>5189.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>81764</v>
+        <v>57538</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Beatriz da Rosa</t>
+          <t>Ana Julia da Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>3496.78</v>
+        <v>11968.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10726</v>
+        <v>96398</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Miguel Barbosa</t>
+          <t>Srta. Bruna Freitas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>6562.34</v>
+        <v>10375.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>55286</v>
+        <v>50209</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Sales</t>
+          <t>Rebeca Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>7599.68</v>
+        <v>2948.33</v>
       </c>
     </row>
   </sheetData>
